--- a/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -60,14 +60,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
+  <x:fonts count="1">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -123,7 +123,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -406,7 +406,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -96,13 +96,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -423,10 +423,6 @@
       <x:c r="A2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="F6" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
@@ -446,7 +442,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A6"/>
+  <x:dimension ref="A1:F6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -501,7 +497,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A8"/>
+  <x:dimension ref="A1:F8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -591,16 +587,6 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
     <x:mergeCell ref="B1:B6"/>
@@ -649,16 +635,6 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
     <x:mergeCell ref="B1:B6"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -423,6 +423,19 @@
       <x:c r="A2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="F2" s="1" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="F3" s="1" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="F4" s="1" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="F5" s="1" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="F6" s="1" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
@@ -448,35 +461,38 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1">
+    <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:1">
+      <x:c r="F2" s="1" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1">
+    <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1">
+      <x:c r="F4" s="1" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1">
+    <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="F6" s="1" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
@@ -503,40 +519,44 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1">
+    <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:1">
+      <x:c r="F2" s="1" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1">
+    <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1">
+      <x:c r="F4" s="1" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1">
+    <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:1">
+      <x:c r="F6" s="1" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="F8" s="1" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="4">
@@ -587,6 +607,31 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="B2" s="1" t="s"/>
+      <x:c r="D2" s="1" t="s"/>
+      <x:c r="F2" s="1" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="B3" s="1" t="s"/>
+      <x:c r="D3" s="1" t="s"/>
+      <x:c r="F3" s="1" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="B4" s="1" t="s"/>
+      <x:c r="D4" s="1" t="s"/>
+      <x:c r="F4" s="1" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="B5" s="1" t="s"/>
+      <x:c r="D5" s="1" t="s"/>
+      <x:c r="F5" s="1" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="B6" s="1" t="s"/>
+      <x:c r="D6" s="1" t="s"/>
+      <x:c r="F6" s="1" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
     <x:mergeCell ref="B1:B6"/>
@@ -635,6 +680,31 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="B2" s="1" t="s"/>
+      <x:c r="D2" s="1" t="s"/>
+      <x:c r="F2" s="1" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="B3" s="1" t="s"/>
+      <x:c r="D3" s="1" t="s"/>
+      <x:c r="F3" s="1" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="B4" s="1" t="s"/>
+      <x:c r="D4" s="1" t="s"/>
+      <x:c r="F4" s="1" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="B5" s="1" t="s"/>
+      <x:c r="D5" s="1" t="s"/>
+      <x:c r="F5" s="1" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="B6" s="1" t="s"/>
+      <x:c r="D6" s="1" t="s"/>
+      <x:c r="F6" s="1" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
     <x:mergeCell ref="B1:B6"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -439,8 +439,8 @@
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
+    <x:mergeCell ref="F1:F6"/>
     <x:mergeCell ref="A2:E2"/>
-    <x:mergeCell ref="F1:F6"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
